--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Vcam1-Itgad.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.42790221153781</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H2">
-        <v>5.42790221153781</v>
+        <v>34.20143</v>
       </c>
       <c r="I2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J2">
-        <v>0.04294356027413199</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.383974679533092</v>
+        <v>0.1986443333333333</v>
       </c>
       <c r="N2">
-        <v>0.383974679533092</v>
+        <v>0.595933</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2113355247082905</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2113355247082905</v>
       </c>
       <c r="Q2">
-        <v>2.084177012212192</v>
+        <v>2.264640087132223</v>
       </c>
       <c r="R2">
-        <v>2.084177012212192</v>
+        <v>20.38176078419</v>
       </c>
       <c r="S2">
-        <v>0.04294356027413199</v>
+        <v>0.01558247873308604</v>
       </c>
       <c r="T2">
-        <v>0.04294356027413199</v>
+        <v>0.01558247873308603</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,60 +596,60 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.9799940683674</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H3">
-        <v>54.9799940683674</v>
+        <v>34.20143</v>
       </c>
       <c r="I3">
-        <v>0.4349814342873793</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J3">
-        <v>0.4349814342873793</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.383974679533092</v>
+        <v>0.3552066666666667</v>
       </c>
       <c r="N3">
-        <v>0.383974679533092</v>
+        <v>1.06562</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.3779004717638536</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.3779004717638535</v>
       </c>
       <c r="Q3">
-        <v>21.11092560313267</v>
+        <v>4.049525315177778</v>
       </c>
       <c r="R3">
-        <v>21.11092560313267</v>
+        <v>36.4457278366</v>
       </c>
       <c r="S3">
-        <v>0.4349814342873793</v>
+        <v>0.02786387226005465</v>
       </c>
       <c r="T3">
-        <v>0.4349814342873793</v>
+        <v>0.02786387226005464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.00213905512072</v>
+        <v>11.40047666666667</v>
       </c>
       <c r="H4">
-        <v>7.00213905512072</v>
+        <v>34.20143</v>
       </c>
       <c r="I4">
-        <v>0.05539834154017269</v>
+        <v>0.07373336193522012</v>
       </c>
       <c r="J4">
-        <v>0.05539834154017269</v>
+        <v>0.07373336193522011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.383974679533092</v>
+        <v>0.3860966666666667</v>
       </c>
       <c r="N4">
-        <v>0.383974679533092</v>
+        <v>1.15829</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.410764003527856</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.410764003527856</v>
       </c>
       <c r="Q4">
-        <v>2.688644099736126</v>
+        <v>4.401686039411112</v>
       </c>
       <c r="R4">
-        <v>2.688644099736126</v>
+        <v>39.6151743547</v>
       </c>
       <c r="S4">
-        <v>0.05539834154017269</v>
+        <v>0.03028701094207944</v>
       </c>
       <c r="T4">
-        <v>0.05539834154017269</v>
+        <v>0.03028701094207943</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.9830157798922</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H5">
-        <v>10.9830157798922</v>
+        <v>165.227989</v>
       </c>
       <c r="I5">
-        <v>0.08689356988285124</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J5">
-        <v>0.08689356988285124</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.383974679533092</v>
+        <v>0.1986443333333333</v>
       </c>
       <c r="N5">
-        <v>0.383974679533092</v>
+        <v>0.595933</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2113355247082905</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2113355247082905</v>
       </c>
       <c r="Q5">
-        <v>4.217199964391</v>
+        <v>10.94053457430411</v>
       </c>
       <c r="R5">
-        <v>4.217199964391</v>
+        <v>98.46481116873701</v>
       </c>
       <c r="S5">
-        <v>0.08689356988285124</v>
+        <v>0.07527935600070153</v>
       </c>
       <c r="T5">
-        <v>0.08689356988285124</v>
+        <v>0.07527935600070153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.46935703894511</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H6">
-        <v>2.46935703894511</v>
+        <v>165.227989</v>
       </c>
       <c r="I6">
-        <v>0.01953664209625615</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J6">
-        <v>0.01953664209625615</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.383974679533092</v>
+        <v>0.3552066666666667</v>
       </c>
       <c r="N6">
-        <v>0.383974679533092</v>
+        <v>1.06562</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.3779004717638536</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.3779004717638535</v>
       </c>
       <c r="Q6">
-        <v>0.9481705776817335</v>
+        <v>19.56336107090889</v>
       </c>
       <c r="R6">
-        <v>0.9481705776817335</v>
+        <v>176.07024963818</v>
       </c>
       <c r="S6">
-        <v>0.01953664209625615</v>
+        <v>0.1346110843693294</v>
       </c>
       <c r="T6">
-        <v>0.01953664209625615</v>
+        <v>0.1346110843693294</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,796 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.5337773717097</v>
+        <v>55.07599633333334</v>
       </c>
       <c r="H7">
-        <v>45.5337773717097</v>
+        <v>165.227989</v>
       </c>
       <c r="I7">
-        <v>0.3602464519192088</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="J7">
-        <v>0.3602464519192088</v>
+        <v>0.3562077701068513</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.383974679533092</v>
+        <v>0.3860966666666667</v>
       </c>
       <c r="N7">
-        <v>0.383974679533092</v>
+        <v>1.15829</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.410764003527856</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.410764003527856</v>
       </c>
       <c r="Q7">
-        <v>17.48381757423339</v>
+        <v>21.26465859764556</v>
       </c>
       <c r="R7">
-        <v>17.48381757423339</v>
+        <v>191.38192737881</v>
       </c>
       <c r="S7">
-        <v>0.3602464519192088</v>
+        <v>0.1463173297368204</v>
       </c>
       <c r="T7">
-        <v>0.3602464519192088</v>
+        <v>0.1463173297368204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>13.47993833333333</v>
+      </c>
+      <c r="H8">
+        <v>40.439815</v>
+      </c>
+      <c r="I8">
+        <v>0.08718242237205706</v>
+      </c>
+      <c r="J8">
+        <v>0.08718242237205706</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1986443333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.595933</v>
+      </c>
+      <c r="O8">
+        <v>0.2113355247082905</v>
+      </c>
+      <c r="P8">
+        <v>0.2113355247082905</v>
+      </c>
+      <c r="Q8">
+        <v>2.677713363599445</v>
+      </c>
+      <c r="R8">
+        <v>24.099420272395</v>
+      </c>
+      <c r="S8">
+        <v>0.01842474297733849</v>
+      </c>
+      <c r="T8">
+        <v>0.01842474297733849</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>13.47993833333333</v>
+      </c>
+      <c r="H9">
+        <v>40.439815</v>
+      </c>
+      <c r="I9">
+        <v>0.08718242237205706</v>
+      </c>
+      <c r="J9">
+        <v>0.08718242237205706</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3552066666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.06562</v>
+      </c>
+      <c r="O9">
+        <v>0.3779004717638536</v>
+      </c>
+      <c r="P9">
+        <v>0.3779004717638535</v>
+      </c>
+      <c r="Q9">
+        <v>4.788163962255556</v>
+      </c>
+      <c r="R9">
+        <v>43.0934756603</v>
+      </c>
+      <c r="S9">
+        <v>0.0329462785439159</v>
+      </c>
+      <c r="T9">
+        <v>0.0329462785439159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>13.47993833333333</v>
+      </c>
+      <c r="H10">
+        <v>40.439815</v>
+      </c>
+      <c r="I10">
+        <v>0.08718242237205706</v>
+      </c>
+      <c r="J10">
+        <v>0.08718242237205706</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.3860966666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.15829</v>
+      </c>
+      <c r="O10">
+        <v>0.410764003527856</v>
+      </c>
+      <c r="P10">
+        <v>0.410764003527856</v>
+      </c>
+      <c r="Q10">
+        <v>5.204559257372224</v>
+      </c>
+      <c r="R10">
+        <v>46.84103331635001</v>
+      </c>
+      <c r="S10">
+        <v>0.03581140085080268</v>
+      </c>
+      <c r="T10">
+        <v>0.03581140085080268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>14.53186966666667</v>
+      </c>
+      <c r="H11">
+        <v>43.595609</v>
+      </c>
+      <c r="I11">
+        <v>0.09398586015799162</v>
+      </c>
+      <c r="J11">
+        <v>0.09398586015799162</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1986443333333333</v>
+      </c>
+      <c r="N11">
+        <v>0.595933</v>
+      </c>
+      <c r="O11">
+        <v>0.2113355247082905</v>
+      </c>
+      <c r="P11">
+        <v>0.2113355247082905</v>
+      </c>
+      <c r="Q11">
+        <v>2.886673562021889</v>
+      </c>
+      <c r="R11">
+        <v>25.980062058197</v>
+      </c>
+      <c r="S11">
+        <v>0.01986255107164918</v>
+      </c>
+      <c r="T11">
+        <v>0.01986255107164918</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>14.53186966666667</v>
+      </c>
+      <c r="H12">
+        <v>43.595609</v>
+      </c>
+      <c r="I12">
+        <v>0.09398586015799162</v>
+      </c>
+      <c r="J12">
+        <v>0.09398586015799162</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.3552066666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.06562</v>
+      </c>
+      <c r="O12">
+        <v>0.3779004717638536</v>
+      </c>
+      <c r="P12">
+        <v>0.3779004717638535</v>
+      </c>
+      <c r="Q12">
+        <v>5.161816984731112</v>
+      </c>
+      <c r="R12">
+        <v>46.45635286258</v>
+      </c>
+      <c r="S12">
+        <v>0.0355173008928366</v>
+      </c>
+      <c r="T12">
+        <v>0.0355173008928366</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>14.53186966666667</v>
+      </c>
+      <c r="H13">
+        <v>43.595609</v>
+      </c>
+      <c r="I13">
+        <v>0.09398586015799162</v>
+      </c>
+      <c r="J13">
+        <v>0.09398586015799162</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.3860966666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.15829</v>
+      </c>
+      <c r="O13">
+        <v>0.410764003527856</v>
+      </c>
+      <c r="P13">
+        <v>0.410764003527856</v>
+      </c>
+      <c r="Q13">
+        <v>5.610706438734445</v>
+      </c>
+      <c r="R13">
+        <v>50.49635794861</v>
+      </c>
+      <c r="S13">
+        <v>0.03860600819350585</v>
+      </c>
+      <c r="T13">
+        <v>0.03860600819350585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.664875</v>
+      </c>
+      <c r="H14">
+        <v>7.994625</v>
+      </c>
+      <c r="I14">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J14">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.1986443333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.595933</v>
+      </c>
+      <c r="O14">
+        <v>0.2113355247082905</v>
+      </c>
+      <c r="P14">
+        <v>0.2113355247082905</v>
+      </c>
+      <c r="Q14">
+        <v>0.5293623177916666</v>
+      </c>
+      <c r="R14">
+        <v>4.764260860125001</v>
+      </c>
+      <c r="S14">
+        <v>0.003642422964229798</v>
+      </c>
+      <c r="T14">
+        <v>0.003642422964229798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.664875</v>
+      </c>
+      <c r="H15">
+        <v>7.994625</v>
+      </c>
+      <c r="I15">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J15">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3552066666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.06562</v>
+      </c>
+      <c r="O15">
+        <v>0.3779004717638536</v>
+      </c>
+      <c r="P15">
+        <v>0.3779004717638535</v>
+      </c>
+      <c r="Q15">
+        <v>0.9465813658333333</v>
+      </c>
+      <c r="R15">
+        <v>8.5192322925</v>
+      </c>
+      <c r="S15">
+        <v>0.006513213329590001</v>
+      </c>
+      <c r="T15">
+        <v>0.00651321332959</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.664875</v>
+      </c>
+      <c r="H16">
+        <v>7.994625</v>
+      </c>
+      <c r="I16">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="J16">
+        <v>0.0172352611765461</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.3860966666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.15829</v>
+      </c>
+      <c r="O16">
+        <v>0.410764003527856</v>
+      </c>
+      <c r="P16">
+        <v>0.410764003527856</v>
+      </c>
+      <c r="Q16">
+        <v>1.028899354583333</v>
+      </c>
+      <c r="R16">
+        <v>9.260094191250001</v>
+      </c>
+      <c r="S16">
+        <v>0.007079624882726301</v>
+      </c>
+      <c r="T16">
+        <v>0.007079624882726301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H17">
+        <v>172.393381</v>
+      </c>
+      <c r="I17">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J17">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1986443333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.595933</v>
+      </c>
+      <c r="O17">
+        <v>0.2113355247082905</v>
+      </c>
+      <c r="P17">
+        <v>0.2113355247082905</v>
+      </c>
+      <c r="Q17">
+        <v>11.41498941327478</v>
+      </c>
+      <c r="R17">
+        <v>102.734904719473</v>
+      </c>
+      <c r="S17">
+        <v>0.07854397296128549</v>
+      </c>
+      <c r="T17">
+        <v>0.07854397296128549</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H18">
+        <v>172.393381</v>
+      </c>
+      <c r="I18">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J18">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3552066666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.06562</v>
+      </c>
+      <c r="O18">
+        <v>0.3779004717638536</v>
+      </c>
+      <c r="P18">
+        <v>0.3779004717638535</v>
+      </c>
+      <c r="Q18">
+        <v>20.41175940680222</v>
+      </c>
+      <c r="R18">
+        <v>183.70583466122</v>
+      </c>
+      <c r="S18">
+        <v>0.140448722368127</v>
+      </c>
+      <c r="T18">
+        <v>0.140448722368127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>57.46446033333334</v>
+      </c>
+      <c r="H19">
+        <v>172.393381</v>
+      </c>
+      <c r="I19">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="J19">
+        <v>0.3716553242513339</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3860966666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.15829</v>
+      </c>
+      <c r="O19">
+        <v>0.410764003527856</v>
+      </c>
+      <c r="P19">
+        <v>0.410764003527856</v>
+      </c>
+      <c r="Q19">
+        <v>22.18683658649889</v>
+      </c>
+      <c r="R19">
+        <v>199.68152927849</v>
+      </c>
+      <c r="S19">
+        <v>0.1526626289219214</v>
+      </c>
+      <c r="T19">
+        <v>0.1526626289219213</v>
       </c>
     </row>
   </sheetData>
